--- a/Control/report/yxyapi-report.xlsx
+++ b/Control/report/yxyapi-report.xlsx
@@ -79,7 +79,7 @@
     <t>{"code_type":"3","login_name":"13577777777","u_type":"2","app_id":"6015","cj_type":0,"token":"TOKEN","user_id":"USER_ID"}</t>
   </si>
   <si>
-    <t>{'success': True, 'object': {'code': '721687'}, 'message': '', 'code': '200', 'remark': '', 'time': '2020-12-12 17:13:40', 'addition': '', 'id': ''}</t>
+    <t>{'success': True, 'object': {'code': '390952'}, 'message': '', 'code': '200', 'remark': '', 'time': '2020-12-14 16:32:19', 'addition': '', 'id': ''}</t>
   </si>
   <si>
     <t>{"success":true,"object":{"code":"860741"},"message":"","code":"200","remark":"","time":"2020-09-02 11:51:21","addition":"","id":""}</t>
@@ -106,7 +106,7 @@
     <t>{"code":"666666","phone":"13577777777","app_id":"6015","cj_type":0,"token":"TOKEN","user_id":"USER_ID"}</t>
   </si>
   <si>
-    <t>{'success': True, 'object': {'id': 'd12150f1bbox6015b4f610a22829c133', 'page_size': 100000, 'page_index': 1, 'name': '芊芊', 'sex': 0, 'phone_number': '13577777777', 'cj_id': '8a70251bbbox60158f58496327066cbb', 'cj_type': 4, 'clerk_type': 2, 'image_illumination': 'http://file.dyzhkj.cn/reader/15671499544956bhqz61566543935769.jpg', 'city_name': '无', 'introduction': '可爱111', 'baseinfo_id': 'e623a8ae5ad2479489bb021e327a2fc8', 'is_online': 1, 'is_register': 1, 'ry_token': '2GxPxBs0oW8Vb1DSzGg3P+YPrjBTIh82TwMufmtvEnaXWSQRexSS4xNIBjY8A2d2gqW/zy6XdI35BCgGSfxjqRSGm4wOJ27Srfr55A3f9heTmUP/NISEwCM87c0iNppd', 'ry_id': 'e623a8ae5ad2479489bb021e327a2fc8', 'city_id': '6667', 'group_id': '901eed42bbox60158cdd305212b38c3e', 'cj_name': '可可连锁1'}, 'message': '', 'code': '200', 'remark': '', 'time': '2020-12-12 17:13:40', 'addition': '', 'id': ''}</t>
+    <t>{'success': True, 'object': {'id': 'd12150f1bbox6015b4f610a22829c133', 'page_size': 100000, 'page_index': 1, 'name': '芊芊', 'sex': 0, 'phone_number': '13577777777', 'cj_id': '8a70251bbbox60158f58496327066cbb', 'cj_type': 4, 'clerk_type': 2, 'image_illumination': 'http://file.dyzhkj.cn/reader/15671499544956bhqz61566543935769.jpg', 'city_name': '无', 'introduction': '可爱111', 'baseinfo_id': 'e623a8ae5ad2479489bb021e327a2fc8', 'is_online': 1, 'is_register': 1, 'ry_token': '2GxPxBs0oW8Vb1DSzGg3P+YPrjBTIh82TwMufmtvEnaXWSQRexSS4xNIBjY8A2d2gqW/zy6XdI35BCgGSfxjqRSGm4wOJ27Srfr55A3f9heTmUP/NISEwCM87c0iNppd', 'ry_id': 'e623a8ae5ad2479489bb021e327a2fc8', 'city_id': '6667', 'group_id': '901eed42bbox60158cdd305212b38c3e', 'cj_name': '可可连锁1'}, 'message': '', 'code': '200', 'remark': '', 'time': '2020-12-14 16:32:20', 'addition': '', 'id': ''}</t>
   </si>
   <si>
     <t>{"success":true,"object":{"id":"d12150f1bbox6015b4f610a22829c133","page_size":100000,"page_index":1,"name":"芊芊","sex":0,"phone_number":"13577777777","cj_id":"8a70251bbbox60158f58496327066cbb","cj_type":4,"clerk_type":2,"image_illumination":"http://file.dyzhkj.cn/reader/15671499544956bhqz61566543935769.jpg","city_name":"无","introduction":"可爱111","baseinfo_id":"e623a8ae5ad2479489bb021e327a2fc8","is_online":1,"is_register":1,"ry_token":"2GxPxBs0oW8Vb1DSzGg3P+YPrjBTIh82TwMufmtvEnaXWSQRexSS4xNIBjY8A2d2gqW/zy6XdI35BCgGSfxjqRSGm4wOJ27Srfr55A3f9heTmUP/NISEwCM87c0iNppd","ry_id":"e623a8ae5ad2479489bb021e327a2fc8","city_id":"6667","group_id":"901eed42bbox60158cdd305212b38c3e","cj_name":"可可连锁1"},"message":"","code":"200","remark":"","time":"2020-09-02 11:51:54","addition":"","id":""}</t>

--- a/Control/report/yxyapi-report.xlsx
+++ b/Control/report/yxyapi-report.xlsx
@@ -79,7 +79,7 @@
     <t>{"code_type":"3","login_name":"13577777777","u_type":"2","app_id":"6015","cj_type":0,"token":"TOKEN","user_id":"USER_ID"}</t>
   </si>
   <si>
-    <t>{'success': True, 'object': {'code': '390952'}, 'message': '', 'code': '200', 'remark': '', 'time': '2020-12-14 16:32:19', 'addition': '', 'id': ''}</t>
+    <t>{'success': True, 'object': {'code': '240154'}, 'message': '', 'code': '200', 'remark': '', 'time': '2020-12-14 16:55:07', 'addition': '', 'id': ''}</t>
   </si>
   <si>
     <t>{"success":true,"object":{"code":"860741"},"message":"","code":"200","remark":"","time":"2020-09-02 11:51:21","addition":"","id":""}</t>
@@ -106,7 +106,7 @@
     <t>{"code":"666666","phone":"13577777777","app_id":"6015","cj_type":0,"token":"TOKEN","user_id":"USER_ID"}</t>
   </si>
   <si>
-    <t>{'success': True, 'object': {'id': 'd12150f1bbox6015b4f610a22829c133', 'page_size': 100000, 'page_index': 1, 'name': '芊芊', 'sex': 0, 'phone_number': '13577777777', 'cj_id': '8a70251bbbox60158f58496327066cbb', 'cj_type': 4, 'clerk_type': 2, 'image_illumination': 'http://file.dyzhkj.cn/reader/15671499544956bhqz61566543935769.jpg', 'city_name': '无', 'introduction': '可爱111', 'baseinfo_id': 'e623a8ae5ad2479489bb021e327a2fc8', 'is_online': 1, 'is_register': 1, 'ry_token': '2GxPxBs0oW8Vb1DSzGg3P+YPrjBTIh82TwMufmtvEnaXWSQRexSS4xNIBjY8A2d2gqW/zy6XdI35BCgGSfxjqRSGm4wOJ27Srfr55A3f9heTmUP/NISEwCM87c0iNppd', 'ry_id': 'e623a8ae5ad2479489bb021e327a2fc8', 'city_id': '6667', 'group_id': '901eed42bbox60158cdd305212b38c3e', 'cj_name': '可可连锁1'}, 'message': '', 'code': '200', 'remark': '', 'time': '2020-12-14 16:32:20', 'addition': '', 'id': ''}</t>
+    <t>{'success': True, 'object': {'id': 'd12150f1bbox6015b4f610a22829c133', 'page_size': 100000, 'page_index': 1, 'name': '芊芊', 'sex': 0, 'phone_number': '13577777777', 'cj_id': '8a70251bbbox60158f58496327066cbb', 'cj_type': 4, 'clerk_type': 2, 'image_illumination': 'http://file.dyzhkj.cn/reader/15671499544956bhqz61566543935769.jpg', 'city_name': '无', 'introduction': '可爱111', 'baseinfo_id': 'e623a8ae5ad2479489bb021e327a2fc8', 'is_online': 1, 'is_register': 1, 'ry_token': '2GxPxBs0oW8Vb1DSzGg3P+YPrjBTIh82TwMufmtvEnaXWSQRexSS4xNIBjY8A2d2gqW/zy6XdI35BCgGSfxjqRSGm4wOJ27Srfr55A3f9heTmUP/NISEwCM87c0iNppd', 'ry_id': 'e623a8ae5ad2479489bb021e327a2fc8', 'city_id': '6667', 'group_id': '901eed42bbox60158cdd305212b38c3e', 'cj_name': '可可连锁1'}, 'message': '', 'code': '200', 'remark': '', 'time': '2020-12-14 16:55:08', 'addition': '', 'id': ''}</t>
   </si>
   <si>
     <t>{"success":true,"object":{"id":"d12150f1bbox6015b4f610a22829c133","page_size":100000,"page_index":1,"name":"芊芊","sex":0,"phone_number":"13577777777","cj_id":"8a70251bbbox60158f58496327066cbb","cj_type":4,"clerk_type":2,"image_illumination":"http://file.dyzhkj.cn/reader/15671499544956bhqz61566543935769.jpg","city_name":"无","introduction":"可爱111","baseinfo_id":"e623a8ae5ad2479489bb021e327a2fc8","is_online":1,"is_register":1,"ry_token":"2GxPxBs0oW8Vb1DSzGg3P+YPrjBTIh82TwMufmtvEnaXWSQRexSS4xNIBjY8A2d2gqW/zy6XdI35BCgGSfxjqRSGm4wOJ27Srfr55A3f9heTmUP/NISEwCM87c0iNppd","ry_id":"e623a8ae5ad2479489bb021e327a2fc8","city_id":"6667","group_id":"901eed42bbox60158cdd305212b38c3e","cj_name":"可可连锁1"},"message":"","code":"200","remark":"","time":"2020-09-02 11:51:54","addition":"","id":""}</t>
